--- a/MR2.4/Feladatok.xlsx
+++ b/MR2.4/Feladatok.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlotamas/GitHub/Onyx-Boox-Air-2-Plus-Templates/MR2.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Onyx-Boox-Air-2-Plus-Templates\MR2.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8206423-A592-CE42-9E17-CBEFB689D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49DA371-EA7D-42DC-857D-86D12946BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{3F16A013-E23B-A54A-8FE9-A65883F9AF20}"/>
+    <workbookView xWindow="-28920" yWindow="-1380" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{3F16A013-E23B-A54A-8FE9-A65883F9AF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="214">
   <si>
     <t>Step 00.</t>
   </si>
@@ -378,13 +380,313 @@
   </si>
   <si>
     <t>Rendszer ellenőrzés, laptopok és szerverek előkészítése</t>
+  </si>
+  <si>
+    <t>Rendszer ellenőrzés és laptopok és szerverek előkészítése</t>
+  </si>
+  <si>
+    <t>02.1</t>
+  </si>
+  <si>
+    <t>02.1.1</t>
+  </si>
+  <si>
+    <t>02.1.2</t>
+  </si>
+  <si>
+    <t>02.1.3</t>
+  </si>
+  <si>
+    <t>02.1.4</t>
+  </si>
+  <si>
+    <t>02.2</t>
+  </si>
+  <si>
+    <t>02.2.1</t>
+  </si>
+  <si>
+    <t>02.2.2</t>
+  </si>
+  <si>
+    <t>02.2.3</t>
+  </si>
+  <si>
+    <t>02.2.4</t>
+  </si>
+  <si>
+    <t>03.1</t>
+  </si>
+  <si>
+    <t>03.2</t>
+  </si>
+  <si>
+    <t>03.3</t>
+  </si>
+  <si>
+    <t>03.4</t>
+  </si>
+  <si>
+    <t>03.5</t>
+  </si>
+  <si>
+    <t>03.5.1</t>
+  </si>
+  <si>
+    <t>03.5.2</t>
+  </si>
+  <si>
+    <t>03.5.3</t>
+  </si>
+  <si>
+    <t>03.5.4</t>
+  </si>
+  <si>
+    <t>03.6</t>
+  </si>
+  <si>
+    <t>03.7</t>
+  </si>
+  <si>
+    <t>03.8</t>
+  </si>
+  <si>
+    <t>05.1</t>
+  </si>
+  <si>
+    <t>05.1.1</t>
+  </si>
+  <si>
+    <t>05.1.2</t>
+  </si>
+  <si>
+    <t>05.1.3</t>
+  </si>
+  <si>
+    <t>05.1.4</t>
+  </si>
+  <si>
+    <t>06.1</t>
+  </si>
+  <si>
+    <t>06.2</t>
+  </si>
+  <si>
+    <t>06.3</t>
+  </si>
+  <si>
+    <t>06.4</t>
+  </si>
+  <si>
+    <t>06.5</t>
+  </si>
+  <si>
+    <t>06.5.1</t>
+  </si>
+  <si>
+    <t>06.5.2</t>
+  </si>
+  <si>
+    <t>06.5.3</t>
+  </si>
+  <si>
+    <t>06.5.4</t>
+  </si>
+  <si>
+    <t>06.5.5</t>
+  </si>
+  <si>
+    <t>06.5.6</t>
+  </si>
+  <si>
+    <t>06.6</t>
+  </si>
+  <si>
+    <t>06.7</t>
+  </si>
+  <si>
+    <t>06.8</t>
+  </si>
+  <si>
+    <t>06.9</t>
+  </si>
+  <si>
+    <t>07.1</t>
+  </si>
+  <si>
+    <t>07.2</t>
+  </si>
+  <si>
+    <t>07.3</t>
+  </si>
+  <si>
+    <t>07.4</t>
+  </si>
+  <si>
+    <t>07.5</t>
+  </si>
+  <si>
+    <t>07.6</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>Megj.</t>
+  </si>
+  <si>
+    <t>00.1.1</t>
+  </si>
+  <si>
+    <t>WinSrv c:\tmp és megosztás</t>
+  </si>
+  <si>
+    <t>DCTL1 D:\dtemp és megosztás</t>
+  </si>
+  <si>
+    <t>DEP1 root check</t>
+  </si>
+  <si>
+    <t>Idő</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>Művelet</t>
+  </si>
+  <si>
+    <t>M01_Update mappa felmásolása az update laptopokra</t>
+  </si>
+  <si>
+    <t>PowerCLI6.5 telepítés az update laptopokra</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>00.1.2</t>
+  </si>
+  <si>
+    <t>00.1.3</t>
+  </si>
+  <si>
+    <t>00.1.4</t>
+  </si>
+  <si>
+    <t>00.1.5</t>
+  </si>
+  <si>
+    <t>60m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>VAMT</t>
+  </si>
+  <si>
+    <t>I4D</t>
+  </si>
+  <si>
+    <t>OPR01</t>
+  </si>
+  <si>
+    <t>OPR02</t>
+  </si>
+  <si>
+    <t>OPR03</t>
+  </si>
+  <si>
+    <t>OPR04</t>
+  </si>
+  <si>
+    <t>OPR05</t>
+  </si>
+  <si>
+    <t>OPR06</t>
+  </si>
+  <si>
+    <t>OPR07</t>
+  </si>
+  <si>
+    <t>OPR08</t>
+  </si>
+  <si>
+    <t>OPR09</t>
+  </si>
+  <si>
+    <t>OPR10</t>
+  </si>
+  <si>
+    <t>OPR11</t>
+  </si>
+  <si>
+    <t>OPR12</t>
+  </si>
+  <si>
+    <t>MMCO</t>
+  </si>
+  <si>
+    <t>Kapugép</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,16 +694,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2C2E30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -409,19 +750,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2C2E30"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,7 +1275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,17 +1285,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4EDE9D-BB0A-184E-9A18-301CA299F5CA}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -764,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -797,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -808,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -830,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44958</v>
       </c>
@@ -841,7 +1394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>37257</v>
       </c>
@@ -852,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37258</v>
       </c>
@@ -863,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37259</v>
       </c>
@@ -874,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37260</v>
       </c>
@@ -885,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44959</v>
       </c>
@@ -896,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37288</v>
       </c>
@@ -907,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37289</v>
       </c>
@@ -918,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37290</v>
       </c>
@@ -929,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37291</v>
       </c>
@@ -940,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -951,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44986</v>
       </c>
@@ -962,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44987</v>
       </c>
@@ -973,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44988</v>
       </c>
@@ -984,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44989</v>
       </c>
@@ -995,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44990</v>
       </c>
@@ -1006,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37742</v>
       </c>
@@ -1017,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37743</v>
       </c>
@@ -1028,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37744</v>
       </c>
@@ -1039,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37745</v>
       </c>
@@ -1050,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44991</v>
       </c>
@@ -1061,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44992</v>
       </c>
@@ -1072,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44993</v>
       </c>
@@ -1083,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1094,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1105,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45047</v>
       </c>
@@ -1116,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>38353</v>
       </c>
@@ -1127,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38354</v>
       </c>
@@ -1138,7 +1691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38355</v>
       </c>
@@ -1149,7 +1702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38356</v>
       </c>
@@ -1160,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1171,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45078</v>
       </c>
@@ -1182,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45079</v>
       </c>
@@ -1193,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45080</v>
       </c>
@@ -1204,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45081</v>
       </c>
@@ -1215,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45082</v>
       </c>
@@ -1226,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38838</v>
       </c>
@@ -1237,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>38839</v>
       </c>
@@ -1248,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38840</v>
       </c>
@@ -1259,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38841</v>
       </c>
@@ -1270,7 +1823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>38842</v>
       </c>
@@ -1281,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38843</v>
       </c>
@@ -1292,7 +1845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45083</v>
       </c>
@@ -1303,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45084</v>
       </c>
@@ -1314,7 +1867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45085</v>
       </c>
@@ -1325,7 +1878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45086</v>
       </c>
@@ -1336,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -1347,7 +1900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45108</v>
       </c>
@@ -1358,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45109</v>
       </c>
@@ -1369,7 +1922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45110</v>
       </c>
@@ -1380,7 +1933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45111</v>
       </c>
@@ -1391,7 +1944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45112</v>
       </c>
@@ -1402,7 +1955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45113</v>
       </c>
@@ -1413,7 +1966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -1424,7 +1977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -1435,7 +1988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -1446,7 +1999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -1457,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -1468,7 +2021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -1479,7 +2032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -1490,7 +2043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -1501,7 +2054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -1512,7 +2065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -1523,7 +2076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44943</v>
       </c>
@@ -1534,7 +2087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44974</v>
       </c>
@@ -1545,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45002</v>
       </c>
@@ -1556,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45033</v>
       </c>
@@ -1567,7 +2120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45063</v>
       </c>
@@ -1578,7 +2131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45094</v>
       </c>
@@ -1589,7 +2142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
@@ -1600,7 +2153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44944</v>
       </c>
@@ -1611,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44975</v>
       </c>
@@ -1622,7 +2175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -1633,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44945</v>
       </c>
@@ -1644,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44976</v>
       </c>
@@ -1655,7 +2208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45004</v>
       </c>
@@ -1666,7 +2219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45035</v>
       </c>
@@ -1677,7 +2230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -1688,7 +2241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>110</v>
       </c>
@@ -1699,7 +2252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>112</v>
       </c>
@@ -1707,4 +2260,1562 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9484240-D996-420E-8BAC-2C7AF98F9D1B}">
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:E114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="83" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" s="28"/>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="28"/>
+      <c r="E92" s="23"/>
+    </row>
+    <row r="93" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="19"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="25"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="26"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="20"/>
+      <c r="B112" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="28"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+      <c r="B114" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="28"/>
+      <c r="E114" s="23"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A259AF59-535F-4522-B294-B48BE299FA80}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="7" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>